--- a/Location Details/Visionary Way, Fishers, IN 46038_expos.xlsx
+++ b/Location Details/Visionary Way, Fishers, IN 46038_expos.xlsx
@@ -662,7 +662,7 @@
         <v>4.6</v>
       </c>
       <c r="E11" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12">
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -781,19 +781,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Grand Park Sports Campus</t>
+          <t>Hamilton County Fairgrounds</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="E17" t="n">
-        <v>1377</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -802,19 +802,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hamilton County Fairgrounds</t>
+          <t>Hancock County Fairgrounds - Indiana</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="E18" t="n">
-        <v>68</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -823,19 +823,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hancock County Fairgrounds - Indiana</t>
+          <t>Harvest Pavillion</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="E19" t="n">
-        <v>333</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -844,19 +844,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Harvest Pavillion</t>
+          <t>Indiana Black Expo Inc</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -865,19 +865,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Indiana Black Expo Inc</t>
+          <t>Indiana Convention Center</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -886,19 +886,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Indiana Convention Center</t>
+          <t>Indiana Flower &amp; Patio Show</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="E22" t="n">
-        <v>527</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -907,19 +907,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Indiana Flower &amp; Patio Show</t>
+          <t>Indiana Latino Expo</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -928,19 +928,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Indiana Latino Expo</t>
+          <t>Indiana State Fairgrounds &amp; Event Center</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -949,19 +949,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Indiana State Fairgrounds &amp; Event Center</t>
+          <t>Indiana State Numismatic Association</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -970,19 +970,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Indiana State Numismatic Association</t>
+          <t>Indianapolis Auto Show</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -991,19 +991,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Indianapolis Auto Show</t>
+          <t>Indianapolis Chapter of Indiana Black Expo, Inc.</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1012,19 +1012,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Indianapolis Chapter of Indiana Black Expo, Inc.</t>
+          <t>Indianapolis Motor Speedway</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Indianapolis Motor Speedway</t>
+          <t>Indy Air Expo</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>11013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Indy Air Expo</t>
+          <t>Indy Displays</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>4.3</v>
       </c>
       <c r="E35" t="n">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="36">
@@ -1192,7 +1192,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
